--- a/src/Sofco.WebApi/wwwroot/excelTemplates/worktime-control-hours.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/worktime-control-hours.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Analítica</t>
   </si>
@@ -42,18 +42,12 @@
     <t>Horas Aprobadas</t>
   </si>
   <si>
-    <t>Horas Licencias</t>
-  </si>
-  <si>
     <t>Horas Pend. Aprobación</t>
   </si>
   <si>
     <t>Horas Borrador</t>
   </si>
   <si>
-    <t>Horas Pend. Carga</t>
-  </si>
-  <si>
     <t>% Asignación</t>
   </si>
   <si>
@@ -76,6 +70,27 @@
   </si>
   <si>
     <t>Horas</t>
+  </si>
+  <si>
+    <t>Total horas a cargar</t>
+  </si>
+  <si>
+    <t>Horas en borrador</t>
+  </si>
+  <si>
+    <t>Total de horas cargadas</t>
+  </si>
+  <si>
+    <t>Horas pendientes aprobación</t>
+  </si>
+  <si>
+    <t>Horas pendientes de carga</t>
+  </si>
+  <si>
+    <t>Total de horas aprobadas</t>
+  </si>
+  <si>
+    <t>Horas faltantes</t>
   </si>
 </sst>
 </file>
@@ -111,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,15 +134,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,65 +448,92 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="A2:J2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
     <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -500,25 +564,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/src/Sofco.WebApi/wwwroot/excelTemplates/worktime-control-hours.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/worktime-control-hours.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468"/>
   </bookViews>
   <sheets>
     <sheet name="Analiticas-Recurso" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Horas Laborables</t>
-  </si>
-  <si>
     <t>Horas Aprobadas</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Horas faltantes</t>
+  </si>
+  <si>
+    <t>A Cargar</t>
   </si>
 </sst>
 </file>
@@ -448,29 +448,29 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="27.19921875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="5"/>
@@ -480,13 +480,13 @@
       <c r="I1" s="5"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="3"/>
@@ -496,17 +496,17 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,25 +517,25 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
@@ -551,41 +551,41 @@
       <selection activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="45.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="29.75" customWidth="1"/>
-    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="29.09765625" customWidth="1"/>
+    <col min="6" max="6" width="29.69921875" customWidth="1"/>
+    <col min="7" max="7" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>

--- a/src/Sofco.WebApi/wwwroot/excelTemplates/worktime-control-hours.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/worktime-control-hours.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\GAPS\src\Sofco.WebApi\wwwroot\excelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAPS\Fuentes\GAPS\src\Sofco.WebApi\wwwroot\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Analiticas-Recurso" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -161,10 +161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,65 +450,61 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,26 +514,26 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
@@ -551,18 +549,18 @@
       <selection activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.69921875" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="29.09765625" customWidth="1"/>
-    <col min="6" max="6" width="29.69921875" customWidth="1"/>
-    <col min="7" max="7" width="7.69921875" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="29.75" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -585,7 +583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>

--- a/src/Sofco.WebApi/wwwroot/excelTemplates/worktime-control-hours.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/worktime-control-hours.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAPS\Fuentes\GAPS\src\Sofco.WebApi\wwwroot\excelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\GAPS\src\Sofco.WebApi\wwwroot\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Analítica</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Horas Borrador</t>
-  </si>
-  <si>
-    <t>% Asignación</t>
   </si>
   <si>
     <t>Analítica-Legajo-Nombre</t>
@@ -153,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -167,6 +164,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -468,11 +466,11 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="11"/>
@@ -484,11 +482,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9"/>
       <c r="I2" s="3"/>
@@ -496,13 +494,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -515,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>3</v>
@@ -527,14 +528,19 @@
         <v>5</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,25 +568,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
